--- a/misc/HTR_results.xlsx
+++ b/misc/HTR_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woysh\Documents\AY_2021_2022\Thesis\ECE-COE-199\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4D4F38-A0BB-426D-AC7C-1CD3BC276B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6126C617-02F0-4BE0-BF27-094C06050816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{0C902A83-C015-4385-9413-D94E907FAC95}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
   <si>
     <t>Data Number</t>
   </si>
@@ -392,6 +391,36 @@
   </si>
   <si>
     <t>CER</t>
+  </si>
+  <si>
+    <t>Character Error</t>
+  </si>
+  <si>
+    <t>Page 1</t>
+  </si>
+  <si>
+    <t>Page 2</t>
+  </si>
+  <si>
+    <t>Page 3</t>
+  </si>
+  <si>
+    <t>Page 4</t>
+  </si>
+  <si>
+    <t>Character Error Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character Error &lt; 20 </t>
+  </si>
+  <si>
+    <t>&lt;20</t>
+  </si>
+  <si>
+    <t>&gt;20</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -750,13 +779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02528F0F-9EC4-434B-AB3E-7B46DC42E528}">
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R73" sqref="R73"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7023,146 +7052,363 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:AC66" si="23">AVERAGE(B64,B61,B58,B55,B52,B49,B46,B43,B40,B37,B34,B31,B28,B25,B22,B19,B16,B13,B10,B7,B4)</f>
-        <v>47.537987325807983</v>
-      </c>
-      <c r="C66" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <f>SUM(B2,B5,B8,B11,B14,B17,B20,B23,B26,B29,B32,B35,B38,B41,B44,B47,B50,B53,B56,B59,B62)</f>
+        <v>258</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:AB66" si="23">SUM(C2,C5,C8,C11,C14,C17,C20,C23,C26,C29,C32,C35,C38,C41,C44,C47,C50,C53,C56,C59,C62)</f>
+        <v>169</v>
       </c>
       <c r="D66">
         <f t="shared" si="23"/>
-        <v>86.646316646316649</v>
+        <v>179</v>
       </c>
       <c r="E66">
         <f t="shared" si="23"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F66">
         <f t="shared" si="23"/>
-        <v>42.864493733530132</v>
+        <v>242</v>
       </c>
       <c r="G66">
         <f t="shared" si="23"/>
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="H66">
         <f t="shared" si="23"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I66">
         <f t="shared" si="23"/>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J66">
         <f t="shared" si="23"/>
-        <v>66.514931103714559</v>
+        <v>888</v>
       </c>
       <c r="K66">
         <f t="shared" si="23"/>
-        <v>95.691609977324262</v>
+        <v>139</v>
       </c>
       <c r="L66">
         <f t="shared" si="23"/>
-        <v>70.754082044286207</v>
+        <v>141</v>
       </c>
       <c r="M66">
         <f t="shared" si="23"/>
-        <v>56.822183421251523</v>
+        <v>597</v>
       </c>
       <c r="N66">
         <f t="shared" si="23"/>
-        <v>91.391941391941401</v>
+        <v>190</v>
       </c>
       <c r="O66">
         <f t="shared" si="23"/>
-        <v>91.642616642616645</v>
+        <v>116</v>
       </c>
       <c r="P66">
         <f t="shared" si="23"/>
-        <v>42.391492037428002</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <f t="shared" si="23"/>
-        <v>54.408988132626497</v>
+        <v>516</v>
       </c>
       <c r="R66">
         <f t="shared" si="23"/>
-        <v>99.319727891156461</v>
+        <v>46</v>
       </c>
       <c r="S66">
         <f t="shared" si="23"/>
-        <v>96.693121693121697</v>
+        <v>136</v>
       </c>
       <c r="T66">
         <f t="shared" si="23"/>
-        <v>91.666666666666671</v>
+        <v>110</v>
       </c>
       <c r="U66">
         <f t="shared" si="23"/>
-        <v>94.389935461364033</v>
-      </c>
-      <c r="V66" t="e">
+        <v>129</v>
+      </c>
+      <c r="V66">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>158</v>
       </c>
       <c r="W66">
         <f t="shared" si="23"/>
-        <v>50.310107600212547</v>
+        <v>212</v>
       </c>
       <c r="X66">
         <f t="shared" si="23"/>
-        <v>88.798185941043073</v>
+        <v>81</v>
       </c>
       <c r="Y66">
         <f t="shared" si="23"/>
-        <v>40.677714569904722</v>
+        <v>228</v>
       </c>
       <c r="Z66">
         <f t="shared" si="23"/>
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AA66">
         <f t="shared" si="23"/>
-        <v>97.61904761904762</v>
+        <v>80</v>
       </c>
       <c r="AB66">
         <f t="shared" si="23"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67">
+        <f>SUM(B3,B6,B9,B12,B15,B18,B21,B24,B27,B30,B33,B36,B39,B42,B45,B48,B51,B54,B57,B60,B63)</f>
+        <v>598</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:AB67" si="24">SUM(C3,C6,C9,C12,C15,C18,C21,C24,C27,C30,C33,C36,C39,C42,C45,C48,C51,C54,C57,C60,C63)</f>
+        <v>281</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="24"/>
+        <v>208</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="24"/>
+        <v>89</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="24"/>
+        <v>668</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="24"/>
+        <v>41</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="24"/>
+        <v>82</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="24"/>
+        <v>125</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="24"/>
+        <v>1300</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="24"/>
+        <v>144</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="24"/>
+        <v>295</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="24"/>
+        <v>1070</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="24"/>
+        <v>209</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="24"/>
+        <v>133</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="24"/>
+        <v>543</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="24"/>
+        <v>993</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="24"/>
+        <v>47</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="24"/>
+        <v>141</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="24"/>
+        <v>118</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="24"/>
+        <v>137</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="24"/>
+        <v>516</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="24"/>
+        <v>455</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="24"/>
+        <v>670</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="24"/>
+        <v>46</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="24"/>
+        <v>82</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="24"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <f>AVERAGE(B64,B61,B58,B55,B52,B49,B46,B43,B40,B37,B34,B31,B28,B25,B22,B19,B16,B13,B10,B7,B4)</f>
+        <v>47.537987325807983</v>
+      </c>
+      <c r="C70" t="e">
+        <f>AVERAGE(C64,C61,C58,C55,C52,C49,C46,C43,C40,C37,C34,C31,C28,C25,C22,C19,C16,C13,C10,C7,C4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D70">
+        <f>AVERAGE(D64,D61,D58,D55,D52,D49,D46,D43,D40,D37,D34,D31,D28,D25,D22,D19,D16,D13,D10,D7,D4)</f>
+        <v>86.646316646316649</v>
+      </c>
+      <c r="E70">
+        <f>AVERAGE(E64,E61,E58,E55,E52,E49,E46,E43,E40,E37,E34,E31,E28,E25,E22,E19,E16,E13,E10,E7,E4)</f>
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <f>AVERAGE(F64,F61,F58,F55,F52,F49,F46,F43,F40,F37,F34,F31,F28,F25,F22,F19,F16,F13,F10,F7,F4)</f>
+        <v>42.864493733530132</v>
+      </c>
+      <c r="G70">
+        <f>AVERAGE(G64,G61,G58,G55,G52,G49,G46,G43,G40,G37,G34,G31,G28,G25,G22,G19,G16,G13,G10,G7,G4)</f>
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <f>AVERAGE(H64,H61,H58,H55,H52,H49,H46,H43,H40,H37,H34,H31,H28,H25,H22,H19,H16,H13,H10,H7,H4)</f>
+        <v>100</v>
+      </c>
+      <c r="I70">
+        <f>AVERAGE(I64,I61,I58,I55,I52,I49,I46,I43,I40,I37,I34,I31,I28,I25,I22,I19,I16,I13,I10,I7,I4)</f>
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <f>AVERAGE(J64,J61,J58,J55,J52,J49,J46,J43,J40,J37,J34,J31,J28,J25,J22,J19,J16,J13,J10,J7,J4)</f>
+        <v>66.514931103714559</v>
+      </c>
+      <c r="K70">
+        <f>AVERAGE(K64,K61,K58,K55,K52,K49,K46,K43,K40,K37,K34,K31,K28,K25,K22,K19,K16,K13,K10,K7,K4)</f>
+        <v>95.691609977324262</v>
+      </c>
+      <c r="L70">
+        <f>AVERAGE(L64,L61,L58,L55,L52,L49,L46,L43,L40,L37,L34,L31,L28,L25,L22,L19,L16,L13,L10,L7,L4)</f>
+        <v>70.754082044286207</v>
+      </c>
+      <c r="M70">
+        <f>AVERAGE(M64,M61,M58,M55,M52,M49,M46,M43,M40,M37,M34,M31,M28,M25,M22,M19,M16,M13,M10,M7,M4)</f>
+        <v>56.822183421251523</v>
+      </c>
+      <c r="N70">
+        <f>AVERAGE(N64,N61,N58,N55,N52,N49,N46,N43,N40,N37,N34,N31,N28,N25,N22,N19,N16,N13,N10,N7,N4)</f>
+        <v>91.391941391941401</v>
+      </c>
+      <c r="O70">
+        <f>AVERAGE(O64,O61,O58,O55,O52,O49,O46,O43,O40,O37,O34,O31,O28,O25,O22,O19,O16,O13,O10,O7,O4)</f>
+        <v>91.642616642616645</v>
+      </c>
+      <c r="P70">
+        <f>AVERAGE(P64,P61,P58,P55,P52,P49,P46,P43,P40,P37,P34,P31,P28,P25,P22,P19,P16,P13,P10,P7,P4)</f>
+        <v>42.391492037428002</v>
+      </c>
+      <c r="Q70">
+        <f>AVERAGE(Q64,Q61,Q58,Q55,Q52,Q49,Q46,Q43,Q40,Q37,Q34,Q31,Q28,Q25,Q22,Q19,Q16,Q13,Q10,Q7,Q4)</f>
+        <v>54.408988132626497</v>
+      </c>
+      <c r="R70">
+        <f>AVERAGE(R64,R61,R58,R55,R52,R49,R46,R43,R40,R37,R34,R31,R28,R25,R22,R19,R16,R13,R10,R7,R4)</f>
+        <v>99.319727891156461</v>
+      </c>
+      <c r="S70">
+        <f>AVERAGE(S64,S61,S58,S55,S52,S49,S46,S43,S40,S37,S34,S31,S28,S25,S22,S19,S16,S13,S10,S7,S4)</f>
+        <v>96.693121693121697</v>
+      </c>
+      <c r="T70">
+        <f>AVERAGE(T64,T61,T58,T55,T52,T49,T46,T43,T40,T37,T34,T31,T28,T25,T22,T19,T16,T13,T10,T7,T4)</f>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="U70">
+        <f>AVERAGE(U64,U61,U58,U55,U52,U49,U46,U43,U40,U37,U34,U31,U28,U25,U22,U19,U16,U13,U10,U7,U4)</f>
+        <v>94.389935461364033</v>
+      </c>
+      <c r="V70" t="e">
+        <f>AVERAGE(V64,V61,V58,V55,V52,V49,V46,V43,V40,V37,V34,V31,V28,V25,V22,V19,V16,V13,V10,V7,V4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W70">
+        <f>AVERAGE(W64,W61,W58,W55,W52,W49,W46,W43,W40,W37,W34,W31,W28,W25,W22,W19,W16,W13,W10,W7,W4)</f>
+        <v>50.310107600212547</v>
+      </c>
+      <c r="X70">
+        <f>AVERAGE(X64,X61,X58,X55,X52,X49,X46,X43,X40,X37,X34,X31,X28,X25,X22,X19,X16,X13,X10,X7,X4)</f>
+        <v>88.798185941043073</v>
+      </c>
+      <c r="Y70">
+        <f>AVERAGE(Y64,Y61,Y58,Y55,Y52,Y49,Y46,Y43,Y40,Y37,Y34,Y31,Y28,Y25,Y22,Y19,Y16,Y13,Y10,Y7,Y4)</f>
+        <v>40.677714569904722</v>
+      </c>
+      <c r="Z70">
+        <f>AVERAGE(Z64,Z61,Z58,Z55,Z52,Z49,Z46,Z43,Z40,Z37,Z34,Z31,Z28,Z25,Z22,Z19,Z16,Z13,Z10,Z7,Z4)</f>
+        <v>100</v>
+      </c>
+      <c r="AA70">
+        <f>AVERAGE(AA64,AA61,AA58,AA55,AA52,AA49,AA46,AA43,AA40,AA37,AA34,AA31,AA28,AA25,AA22,AA19,AA16,AA13,AA10,AA7,AA4)</f>
+        <v>97.61904761904762</v>
+      </c>
+      <c r="AB70">
+        <f>AVERAGE(AB64,AB61,AB58,AB55,AB52,AB49,AB46,AB43,AB40,AB37,AB34,AB31,AB28,AB25,AB22,AB19,AB16,AB13,AB10,AB7,AB4)</f>
         <v>98.412698412698433</v>
       </c>
-      <c r="AC66">
-        <f t="shared" si="23"/>
+      <c r="AC70">
+        <f>AVERAGE(AC64,AC61,AC58,AC55,AC52,AC49,AC46,AC43,AC40,AC37,AC34,AC31,AC28,AC25,AC22,AC19,AC16,AC13,AC10,AC7,AC4)</f>
         <v>58.810150273264277</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="AB68" t="s">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB72" t="s">
         <v>115</v>
       </c>
-      <c r="AC68">
+      <c r="AC72">
         <f>SUM(AC2,AC5,AC8,AC11,AC14,AC17,AC20,AC23,AC26,AC29,AC32,AC35,AC38,AC41,AC44,AC47,AC50,AC53,AC56,AC59,AC62)</f>
         <v>5283</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="AB69" t="s">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB73" t="s">
         <v>116</v>
       </c>
-      <c r="AC69">
+      <c r="AC73">
         <f>SUM(AC3,AC6,AC9,AC12,AC15,AC18,AC21,AC24,AC27,AC30,AC33,AC36,AC39,AC42,AC45,AC48,AC51,AC54,AC57,AC60,AC63)</f>
         <v>9173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="AB70" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC70">
-        <f>AC68/AC69*100</f>
-        <v>57.592935789817943</v>
       </c>
     </row>
   </sheetData>
@@ -7173,13 +7419,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD2096-E05F-4AFB-B40E-C68344BC040F}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L70" sqref="L70"/>
+      <selection pane="bottomRight" activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9818,78 +10064,175 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:K66" si="21">AVERAGE(B4,B7,B10,B13,B16,B19,B22,B25,B28,B31,B34,B37,B40,B43,B46,B49,B52,B55,B58,B61,B64)</f>
-        <v>104.3983470581215</v>
+        <f>SUM(B2,B5,B8,B11,B14,B17,B20,B23,B26,B29,B32,B35,B38,B41,B44,B47,B50,B53,B56,B59,B62)</f>
+        <v>241</v>
       </c>
       <c r="C66">
-        <f t="shared" si="21"/>
-        <v>88.242597233825308</v>
+        <f t="shared" ref="C66:L66" si="21">SUM(C2,C5,C8,C11,C14,C17,C20,C23,C26,C29,C32,C35,C38,C41,C44,C47,C50,C53,C56,C59,C62)</f>
+        <v>243</v>
       </c>
       <c r="D66">
         <f t="shared" si="21"/>
-        <v>50.371510123835982</v>
+        <v>1321</v>
       </c>
       <c r="E66">
         <f t="shared" si="21"/>
-        <v>99.523809523809518</v>
+        <v>209</v>
       </c>
       <c r="F66">
         <f t="shared" si="21"/>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G66">
         <f t="shared" si="21"/>
-        <v>74.222058839484745</v>
+        <v>849</v>
       </c>
       <c r="H66">
         <f t="shared" si="21"/>
-        <v>66.859158234538171</v>
+        <v>720</v>
       </c>
       <c r="I66">
         <f t="shared" si="21"/>
-        <v>99.523809523809518</v>
+        <v>202</v>
       </c>
       <c r="J66">
         <f t="shared" si="21"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K66">
         <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="21"/>
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67">
+        <f>SUM(B3,B6,B9,B12,B15,B18,B21,B24,B27,B30,B33,B36,B39,B42,B45,B48,B51,B54,B57,B60,B63)</f>
+        <v>348</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:L67" si="22">SUM(C3,C6,C9,C12,C15,C18,C21,C24,C27,C30,C33,C36,C39,C42,C45,C48,C51,C54,C57,C60,C63)</f>
+        <v>298</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="22"/>
+        <v>2474</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="22"/>
+        <v>210</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="22"/>
+        <v>1050</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="22"/>
+        <v>1131</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="22"/>
+        <v>203</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="22"/>
+        <v>85</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="L67">
+        <f>SUM(B67:K67)</f>
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <f>AVERAGE(B4,B7,B10,B13,B16,B19,B22,B25,B28,B31,B34,B37,B40,B43,B46,B49,B52,B55,B58,B61,B64)</f>
+        <v>104.3983470581215</v>
+      </c>
+      <c r="C71">
+        <f>AVERAGE(C4,C7,C10,C13,C16,C19,C22,C25,C28,C31,C34,C37,C40,C43,C46,C49,C52,C55,C58,C61,C64)</f>
+        <v>88.242597233825308</v>
+      </c>
+      <c r="D71">
+        <f>AVERAGE(D4,D7,D10,D13,D16,D19,D22,D25,D28,D31,D34,D37,D40,D43,D46,D49,D52,D55,D58,D61,D64)</f>
+        <v>50.371510123835982</v>
+      </c>
+      <c r="E71">
+        <f>AVERAGE(E4,E7,E10,E13,E16,E19,E22,E25,E28,E31,E34,E37,E40,E43,E46,E49,E52,E55,E58,E61,E64)</f>
+        <v>99.523809523809518</v>
+      </c>
+      <c r="F71">
+        <f>AVERAGE(F4,F7,F10,F13,F16,F19,F22,F25,F28,F31,F34,F37,F40,F43,F46,F49,F52,F55,F58,F61,F64)</f>
+        <v>100</v>
+      </c>
+      <c r="G71">
+        <f>AVERAGE(G4,G7,G10,G13,G16,G19,G22,G25,G28,G31,G34,G37,G40,G43,G46,G49,G52,G55,G58,G61,G64)</f>
+        <v>74.222058839484745</v>
+      </c>
+      <c r="H71">
+        <f>AVERAGE(H4,H7,H10,H13,H16,H19,H22,H25,H28,H31,H34,H37,H40,H43,H46,H49,H52,H55,H58,H61,H64)</f>
+        <v>66.859158234538171</v>
+      </c>
+      <c r="I71">
+        <f>AVERAGE(I4,I7,I10,I13,I16,I19,I22,I25,I28,I31,I34,I37,I40,I43,I46,I49,I52,I55,I58,I61,I64)</f>
+        <v>99.523809523809518</v>
+      </c>
+      <c r="J71">
+        <f>AVERAGE(J4,J7,J10,J13,J16,J19,J22,J25,J28,J31,J34,J37,J40,J43,J46,J49,J52,J55,J58,J61,J64)</f>
+        <v>100</v>
+      </c>
+      <c r="K71">
+        <f>AVERAGE(K4,K7,K10,K13,K16,K19,K22,K25,K28,K31,K34,K37,K40,K43,K46,K49,K52,K55,K58,K61,K64)</f>
         <v>1.1904761904761905</v>
       </c>
-      <c r="L66">
+      <c r="L71">
         <f>AVERAGE(L4,L7,L10,L13,L16,L19,L22,L25,L28,L31,L34,L37,L40,L43,L46,L49,L52,L55,L58,L61,L64)</f>
         <v>66.28543993422241</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K68" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K73" t="s">
         <v>115</v>
       </c>
-      <c r="L68">
+      <c r="L73">
         <f>SUM(L2,L5,L8,L11,L14,L17,L20,L23,L26,L29,L32,L35,L38,L41,L44,L47,L50,L53,L56,L59,L62)</f>
         <v>3964</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K69" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K74" t="s">
         <v>116</v>
       </c>
-      <c r="L69">
-        <f>SUM(L3,L6,L9,L12,L15,L18,L21,L24,L27,L30,L33,L36,L39,L42,L45,L48,L51,L54,L57,L60,L63)</f>
-        <v>5918</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K70" t="s">
+      <c r="L74">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K75" t="s">
         <v>117</v>
       </c>
-      <c r="L70">
-        <f>L68/L69*100</f>
-        <v>66.982088543426826</v>
+      <c r="L75">
+        <f>L73/L74*100</f>
+        <v>67.163673331074207</v>
       </c>
     </row>
   </sheetData>
@@ -9900,13 +10243,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D658A06B-6728-4B58-A173-5A5500BC93B4}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
+      <selection pane="bottomRight" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13181,30 +13524,152 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="66" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N66" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>115</v>
       </c>
+      <c r="B66">
+        <f>SUM(B2,B5,B8,B11,B14,B17,B20,B23,B26,B29,B32,B35,B38,B41,B44,B47,B50,B53,B56,B59,B62)</f>
+        <v>37</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:O66" si="21">SUM(C2,C5,C8,C11,C14,C17,C20,C23,C26,C29,C32,C35,C38,C41,C44,C47,C50,C53,C56,C59,C62)</f>
+        <v>175</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="21"/>
+        <v>113</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="21"/>
+        <v>111</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="21"/>
+        <v>218</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="21"/>
+        <v>448</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="21"/>
+        <v>369</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="21"/>
+        <v>142</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="21"/>
+        <v>308</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
       <c r="O66">
+        <f t="shared" si="21"/>
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67">
+        <f>SUM(B3,B6,B9,B12,B15,B18,B21,B24,B27,B30,B33,B36,B39,B42,B45,B48,B51,B54,B57,B60,B63)</f>
+        <v>37</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:O67" si="22">SUM(C3,C6,C9,C12,C15,C18,C21,C24,C27,C30,C33,C36,C39,C42,C45,C48,C51,C54,C57,C60,C63)</f>
+        <v>175</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="22"/>
+        <v>118</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="22"/>
+        <v>121</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="22"/>
+        <v>220</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="22"/>
+        <v>692</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="22"/>
+        <v>421</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="22"/>
+        <v>142</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="22"/>
+        <v>346</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="22"/>
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N69" t="s">
+        <v>115</v>
+      </c>
+      <c r="O69">
         <f>SUM(O2,O5,O8,O11,O14,O17,O20,O23,O26,O29,O32,O35,O38,O41,O44,O47,O50,O53,O56,O59,O62)</f>
         <v>1983</v>
       </c>
     </row>
-    <row r="67" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N67" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N70" t="s">
         <v>116</v>
       </c>
-      <c r="O67">
+      <c r="O70">
         <f>SUM(O3,O6,O9,O12,O15,O18,O21,O24,O27,O30,O33,O36,O39,O42,O45,O48,O51,O54,O57,O60,O63)</f>
         <v>2360</v>
       </c>
     </row>
-    <row r="68" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N68" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N71" t="s">
         <v>117</v>
       </c>
-      <c r="O68">
-        <f>O66/O67*100</f>
+      <c r="O71">
+        <f>O69/O70*100</f>
         <v>84.025423728813564</v>
       </c>
     </row>
@@ -13216,13 +13681,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC98667-FEA6-4F91-B885-9ACA1DFC2FB4}">
-  <dimension ref="A1:AW68"/>
+  <dimension ref="A1:AW72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW68" sqref="AW68"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65:AV66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19988,30 +20453,416 @@
         <v>88.446215139442231</v>
       </c>
     </row>
-    <row r="66" spans="48:49" x14ac:dyDescent="0.3">
-      <c r="AV66" t="s">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65">
+        <f>SUM(B2,B5,B8,B11,B14,B17,B20,B23,B26,B29,B32,B35,B38,B41,B44,B47,B50,B53,B56,B59,B62)</f>
+        <v>384</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:AV65" si="3">SUM(C2,C5,C8,C11,C14,C17,C20,C23,C26,C29,C32,C35,C38,C41,C44,C47,C50,C53,C56,C59,C62)</f>
+        <v>21</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="AL65">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="AN65">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="AR65">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="AS65">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="AT65">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="AU65">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="AV65">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66">
+        <f>SUM(B3,B6,B9,B12,B15,B18,B21,B24,B27,B30,B33,B36,B39,B42,B45,B48,B51,B54,B57,B60,B63)</f>
+        <v>521</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:AV66" si="4">SUM(C3,C6,C9,C12,C15,C18,C21,C24,C27,C30,C33,C36,C39,C42,C45,C48,C51,C54,C57,C60,C63)</f>
+        <v>28</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>201</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>618</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="4"/>
+        <v>323</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="AG66">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="AH66">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AJ66">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="AL66">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AM66">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="AN66">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="AO66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="AR66">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="AS66">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="AT66">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="AU66">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="AV66">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AV70" t="s">
         <v>115</v>
       </c>
-      <c r="AW66">
+      <c r="AW70">
         <f>SUM(AW2,AW5,AW8,AW11,AW14,AW17,AW20,AW23,AW26,AW29,AW32,AW35,AW38,AW41,AW44,AW47,AW50,AW53,AW56,AW59,AW62)</f>
         <v>3970</v>
       </c>
     </row>
-    <row r="67" spans="48:49" x14ac:dyDescent="0.3">
-      <c r="AV67" t="s">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AV71" t="s">
         <v>116</v>
       </c>
-      <c r="AW67">
+      <c r="AW71">
         <f>SUM(AW3,AW6,AW9,AW12,AW15,AW18,AW21,AW24,AW27,AW30,AW33,AW36,AW39,AW42,AW45,AW48,AW51,AW54,AW57,AW60,AW63)</f>
         <v>4909</v>
       </c>
     </row>
-    <row r="68" spans="48:49" x14ac:dyDescent="0.3">
-      <c r="AV68" t="s">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AV72" t="s">
         <v>117</v>
       </c>
-      <c r="AW68">
-        <f>AW66/AW67*100</f>
+      <c r="AW72">
+        <f>AW70/AW71*100</f>
         <v>80.871867997555512</v>
       </c>
     </row>
@@ -20024,42 +20875,284 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26944FE7-357E-4B8A-9BE2-E52E171D8126}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>115</v>
       </c>
       <c r="B1">
-        <f>Page_1_CER!AC68+Page_2_CER!L68+Page_3_CER!O66+Page_4_CER!AW66</f>
+        <f>Page_1_CER!AC72+Page_2_CER!L73+Page_3_CER!O69+Page_4_CER!AW70</f>
         <v>15200</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
       <c r="B2">
-        <f>SUM(Page_1_CER!AC69+Page_2_CER!L69+Page_3_CER!O67+Page_4_CER!AW67)</f>
-        <v>22360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <f>SUM(Page_1_CER!AC73+Page_2_CER!L74+Page_3_CER!O70+Page_4_CER!AW71)</f>
+        <v>22344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
       <c r="B3">
         <f>B1/B2*100</f>
-        <v>67.978533094812164</v>
+        <v>68.027210884353735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <f>SUM(Page_1_CER!B66,Page_1_CER!F66,Page_1_CER!J66,Page_1_CER!M66,Page_1_CER!P66,Page_1_CER!Q66,Page_1_CER!V66,Page_1_CER!W66,Page_1_CER!Y66)</f>
+        <v>3301</v>
+      </c>
+      <c r="C7">
+        <f>SUM(Page_1_CER!B67,Page_1_CER!F67,Page_1_CER!J67,Page_1_CER!M67,Page_1_CER!P67,Page_1_CER!Q67,Page_1_CER!V67,Page_1_CER!W67,Page_1_CER!Y67)</f>
+        <v>6813</v>
+      </c>
+      <c r="D7">
+        <f>B7/C7*100</f>
+        <v>48.45148979891384</v>
+      </c>
+      <c r="E7">
+        <f>B7+B16</f>
+        <v>5283</v>
+      </c>
+      <c r="F7">
+        <f>C7+C16</f>
+        <v>9173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <f>SUM(Page_2_CER!D66,Page_2_CER!G66,Page_2_CER!H66)</f>
+        <v>2890</v>
+      </c>
+      <c r="C8">
+        <f>SUM(Page_2_CER!D67,Page_2_CER!G67,Page_2_CER!H67)</f>
+        <v>4655</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D10" si="0">B8/C8*100</f>
+        <v>62.083780880773368</v>
+      </c>
+      <c r="E8">
+        <f>B8+B17</f>
+        <v>3964</v>
+      </c>
+      <c r="F8">
+        <f>C8+C17</f>
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9">
+        <f>SUM(Page_3_CER!I66:J66,Page_3_CER!M66)</f>
+        <v>1125</v>
+      </c>
+      <c r="C9">
+        <f>SUM(Page_3_CER!I67:J67,Page_3_CER!M67)</f>
+        <v>1459</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>77.107607950651129</v>
+      </c>
+      <c r="E9">
+        <f>B9+B18</f>
+        <v>1983</v>
+      </c>
+      <c r="F9">
+        <f>C9+C18</f>
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10">
+        <f>SUM(Page_4_CER!B65,Page_4_CER!K65,Page_4_CER!M65)</f>
+        <v>941</v>
+      </c>
+      <c r="C10">
+        <f>SUM(Page_4_CER!B66,Page_4_CER!K66,Page_4_CER!M66)</f>
+        <v>1462</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>64.36388508891929</v>
+      </c>
+      <c r="E10">
+        <f>B10+B19</f>
+        <v>3970</v>
+      </c>
+      <c r="F10">
+        <f>C10+C19</f>
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B7:B10)</f>
+        <v>8257</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C7:C10)</f>
+        <v>14389</v>
+      </c>
+      <c r="D11">
+        <f>B11/C11*100</f>
+        <v>57.38411286399333</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E7:E10)</f>
+        <v>15200</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F7:F10)</f>
+        <v>22344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16">
+        <f>SUM(Page_1_CER!C66:E66,Page_1_CER!G66:I66,Page_1_CER!K66:L66,Page_1_CER!N66:O66,Page_1_CER!R66:U66,Page_1_CER!X66,Page_1_CER!Z66:AB66)</f>
+        <v>1982</v>
+      </c>
+      <c r="C16">
+        <f>SUM(Page_1_CER!C67:E67,Page_1_CER!G67:I67,Page_1_CER!K67:L67,Page_1_CER!N67:O67,Page_1_CER!R67:U67,Page_1_CER!X67,Page_1_CER!Z67:AB67)</f>
+        <v>2360</v>
+      </c>
+      <c r="D16">
+        <f>B16/C16*100</f>
+        <v>83.983050847457633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17">
+        <f>SUM(Page_2_CER!B66:C66,Page_2_CER!E66:F66,Page_2_CER!I66:K66)</f>
+        <v>1074</v>
+      </c>
+      <c r="C17">
+        <f>SUM(Page_2_CER!B67:C67,Page_2_CER!E67:F67,Page_2_CER!I67:K67)</f>
+        <v>1247</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D19" si="1">B17/C17*100</f>
+        <v>86.126704089815547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18">
+        <f>SUM(Page_3_CER!B66:H66,Page_3_CER!K66:L66,Page_3_CER!N66)</f>
+        <v>858</v>
+      </c>
+      <c r="C18">
+        <f>SUM(Page_3_CER!B67:H67,Page_3_CER!K67:L67,Page_3_CER!N67)</f>
+        <v>901</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>95.22752497225305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19">
+        <f>SUM(Page_4_CER!C65:J65,Page_4_CER!L65,Page_4_CER!N65:AV65)</f>
+        <v>3029</v>
+      </c>
+      <c r="C19">
+        <f>SUM(Page_4_CER!C66:J66,Page_4_CER!L66,Page_4_CER!N66:AV66)</f>
+        <v>3447</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>87.873513199883959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>SUM(B16:B19)</f>
+        <v>6943</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C16:C19)</f>
+        <v>7955</v>
+      </c>
+      <c r="D20">
+        <f>B20/C20*100</f>
+        <v>87.278441231929605</v>
       </c>
     </row>
   </sheetData>
